--- a/Phenoloxidase Activity data/Sample for data.xlsx
+++ b/Phenoloxidase Activity data/Sample for data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Data\Phenol oxidase activity\Phenoloxidase Activity data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Research\Phenoloxidase Activity data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Blank " sheetId="4" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <sheet name="3" sheetId="24" r:id="rId5"/>
     <sheet name="Phenol oxidase activity" sheetId="3" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -490,11 +487,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="830150160"/>
-        <c:axId val="830149376"/>
+        <c:axId val="367550264"/>
+        <c:axId val="737287280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="830150160"/>
+        <c:axId val="367550264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -551,12 +548,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830149376"/>
+        <c:crossAx val="737287280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="830149376"/>
+        <c:axId val="737287280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -613,7 +610,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830150160"/>
+        <c:crossAx val="367550264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -881,11 +878,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="830158784"/>
-        <c:axId val="830156824"/>
+        <c:axId val="369755280"/>
+        <c:axId val="369755672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="830158784"/>
+        <c:axId val="369755280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -942,12 +939,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830156824"/>
+        <c:crossAx val="369755672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="830156824"/>
+        <c:axId val="369755672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1004,7 +1001,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830158784"/>
+        <c:crossAx val="369755280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1272,11 +1269,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="830159568"/>
-        <c:axId val="830157216"/>
+        <c:axId val="369753320"/>
+        <c:axId val="369752928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="830159568"/>
+        <c:axId val="369753320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1333,12 +1330,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830157216"/>
+        <c:crossAx val="369752928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="830157216"/>
+        <c:axId val="369752928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1395,7 +1392,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830159568"/>
+        <c:crossAx val="369753320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1663,11 +1660,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="830159960"/>
-        <c:axId val="830154080"/>
+        <c:axId val="369754104"/>
+        <c:axId val="369754888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="830159960"/>
+        <c:axId val="369754104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1724,12 +1721,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830154080"/>
+        <c:crossAx val="369754888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="830154080"/>
+        <c:axId val="369754888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1786,7 +1783,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830159960"/>
+        <c:crossAx val="369754104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2054,11 +2051,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="830131344"/>
-        <c:axId val="830131736"/>
+        <c:axId val="731188376"/>
+        <c:axId val="731186808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="830131344"/>
+        <c:axId val="731188376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2115,12 +2112,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830131736"/>
+        <c:crossAx val="731186808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="830131736"/>
+        <c:axId val="731186808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2177,7 +2174,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830131344"/>
+        <c:crossAx val="731188376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2445,11 +2442,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="830138400"/>
-        <c:axId val="830139576"/>
+        <c:axId val="731187592"/>
+        <c:axId val="731185240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="830138400"/>
+        <c:axId val="731187592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2506,12 +2503,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830139576"/>
+        <c:crossAx val="731185240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="830139576"/>
+        <c:axId val="731185240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2568,7 +2565,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830138400"/>
+        <c:crossAx val="731187592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2836,11 +2833,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="830136832"/>
-        <c:axId val="830129384"/>
+        <c:axId val="731185632"/>
+        <c:axId val="731186416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="830136832"/>
+        <c:axId val="731185632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2897,12 +2894,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830129384"/>
+        <c:crossAx val="731186416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="830129384"/>
+        <c:axId val="731186416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2959,7 +2956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830136832"/>
+        <c:crossAx val="731185632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3227,11 +3224,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="830128992"/>
-        <c:axId val="830130952"/>
+        <c:axId val="731187984"/>
+        <c:axId val="372458584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="830128992"/>
+        <c:axId val="731187984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3288,12 +3285,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830130952"/>
+        <c:crossAx val="372458584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="830130952"/>
+        <c:axId val="372458584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3350,7 +3347,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830128992"/>
+        <c:crossAx val="731187984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3618,11 +3615,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="830133304"/>
-        <c:axId val="830129776"/>
+        <c:axId val="372459760"/>
+        <c:axId val="372457408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="830133304"/>
+        <c:axId val="372459760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3679,12 +3676,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830129776"/>
+        <c:crossAx val="372457408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="830129776"/>
+        <c:axId val="372457408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3741,7 +3738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830133304"/>
+        <c:crossAx val="372459760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4009,11 +4006,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="830137616"/>
-        <c:axId val="830137224"/>
+        <c:axId val="372460152"/>
+        <c:axId val="372456624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="830137616"/>
+        <c:axId val="372460152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4070,12 +4067,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830137224"/>
+        <c:crossAx val="372456624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="830137224"/>
+        <c:axId val="372456624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4132,7 +4129,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830137616"/>
+        <c:crossAx val="372460152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4400,11 +4397,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="830130168"/>
-        <c:axId val="830135264"/>
+        <c:axId val="372458976"/>
+        <c:axId val="372459368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="830130168"/>
+        <c:axId val="372458976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4461,12 +4458,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830135264"/>
+        <c:crossAx val="372459368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="830135264"/>
+        <c:axId val="372459368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4523,7 +4520,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830130168"/>
+        <c:crossAx val="372458976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4791,11 +4788,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="830151728"/>
-        <c:axId val="830149768"/>
+        <c:axId val="737284144"/>
+        <c:axId val="737286888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="830151728"/>
+        <c:axId val="737284144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4852,12 +4849,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830149768"/>
+        <c:crossAx val="737286888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="830149768"/>
+        <c:axId val="737286888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4914,7 +4911,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830151728"/>
+        <c:crossAx val="737284144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4978,7 +4975,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5183,11 +5179,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="830133696"/>
-        <c:axId val="830134088"/>
+        <c:axId val="375598240"/>
+        <c:axId val="375597456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="830133696"/>
+        <c:axId val="375598240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5244,12 +5240,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830134088"/>
+        <c:crossAx val="375597456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="830134088"/>
+        <c:axId val="375597456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5306,7 +5302,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830133696"/>
+        <c:crossAx val="375598240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5370,7 +5366,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5575,11 +5570,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="830139968"/>
-        <c:axId val="830134872"/>
+        <c:axId val="375595496"/>
+        <c:axId val="375596672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="830139968"/>
+        <c:axId val="375595496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5636,12 +5631,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830134872"/>
+        <c:crossAx val="375596672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="830134872"/>
+        <c:axId val="375596672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5698,7 +5693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830139968"/>
+        <c:crossAx val="375595496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5966,11 +5961,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381996248"/>
-        <c:axId val="381996640"/>
+        <c:axId val="375595888"/>
+        <c:axId val="375597848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381996248"/>
+        <c:axId val="375595888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6027,12 +6022,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381996640"/>
+        <c:crossAx val="375597848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381996640"/>
+        <c:axId val="375597848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6089,7 +6084,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381996248"/>
+        <c:crossAx val="375595888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6357,11 +6352,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381994680"/>
-        <c:axId val="381997816"/>
+        <c:axId val="373973360"/>
+        <c:axId val="373973752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381994680"/>
+        <c:axId val="373973360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6418,12 +6413,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381997816"/>
+        <c:crossAx val="373973752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381997816"/>
+        <c:axId val="373973752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6480,7 +6475,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381994680"/>
+        <c:crossAx val="373973360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6748,11 +6743,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381995072"/>
-        <c:axId val="381995856"/>
+        <c:axId val="373975320"/>
+        <c:axId val="373975712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381995072"/>
+        <c:axId val="373975320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6809,12 +6804,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381995856"/>
+        <c:crossAx val="373975712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381995856"/>
+        <c:axId val="373975712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6871,7 +6866,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381995072"/>
+        <c:crossAx val="373975320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7139,11 +7134,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381984488"/>
-        <c:axId val="381990368"/>
+        <c:axId val="373976104"/>
+        <c:axId val="373974928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381984488"/>
+        <c:axId val="373976104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7200,12 +7195,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381990368"/>
+        <c:crossAx val="373974928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381990368"/>
+        <c:axId val="373974928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7262,7 +7257,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381984488"/>
+        <c:crossAx val="373976104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7326,6 +7321,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7530,11 +7526,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381993896"/>
-        <c:axId val="381990760"/>
+        <c:axId val="373972968"/>
+        <c:axId val="376841104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381993896"/>
+        <c:axId val="373972968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7591,12 +7587,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381990760"/>
+        <c:crossAx val="376841104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381990760"/>
+        <c:axId val="376841104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7653,7 +7649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381993896"/>
+        <c:crossAx val="373972968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7717,6 +7713,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7921,11 +7918,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381988408"/>
-        <c:axId val="381988016"/>
+        <c:axId val="376837968"/>
+        <c:axId val="376840320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381988408"/>
+        <c:axId val="376837968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7982,12 +7979,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381988016"/>
+        <c:crossAx val="376840320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381988016"/>
+        <c:axId val="376840320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8044,7 +8041,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381988408"/>
+        <c:crossAx val="376837968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8312,11 +8309,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="830152512"/>
-        <c:axId val="830141536"/>
+        <c:axId val="737286104"/>
+        <c:axId val="737284536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="830152512"/>
+        <c:axId val="737286104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8373,12 +8370,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830141536"/>
+        <c:crossAx val="737284536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="830141536"/>
+        <c:axId val="737284536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8435,7 +8432,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830152512"/>
+        <c:crossAx val="737286104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8704,11 +8701,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246794520"/>
-        <c:axId val="246794912"/>
+        <c:axId val="737285320"/>
+        <c:axId val="737285712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246794520"/>
+        <c:axId val="737285320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8765,12 +8762,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246794912"/>
+        <c:crossAx val="737285712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246794912"/>
+        <c:axId val="737285712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8827,7 +8824,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246794520"/>
+        <c:crossAx val="737285320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9096,11 +9093,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246796088"/>
-        <c:axId val="246797264"/>
+        <c:axId val="728871008"/>
+        <c:axId val="728871792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246796088"/>
+        <c:axId val="728871008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9157,12 +9154,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246797264"/>
+        <c:crossAx val="728871792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246797264"/>
+        <c:axId val="728871792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9219,7 +9216,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246796088"/>
+        <c:crossAx val="728871008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9283,7 +9280,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9488,11 +9484,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="374840232"/>
-        <c:axId val="374838272"/>
+        <c:axId val="728872576"/>
+        <c:axId val="726784792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="374840232"/>
+        <c:axId val="728872576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9549,12 +9545,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374838272"/>
+        <c:crossAx val="726784792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="374838272"/>
+        <c:axId val="726784792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9611,7 +9607,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374840232"/>
+        <c:crossAx val="728872576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9675,7 +9671,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9880,11 +9875,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="374835136"/>
-        <c:axId val="374838664"/>
+        <c:axId val="726783616"/>
+        <c:axId val="726784400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="374835136"/>
+        <c:axId val="726783616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9941,12 +9936,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374838664"/>
+        <c:crossAx val="726784400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="374838664"/>
+        <c:axId val="726784400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10003,7 +9998,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374835136"/>
+        <c:crossAx val="726783616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10067,7 +10062,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10272,11 +10266,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="374839840"/>
-        <c:axId val="374840624"/>
+        <c:axId val="367548096"/>
+        <c:axId val="367547312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="374839840"/>
+        <c:axId val="367548096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10333,12 +10327,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374840624"/>
+        <c:crossAx val="367547312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="374840624"/>
+        <c:axId val="367547312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10395,7 +10389,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374839840"/>
+        <c:crossAx val="367548096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10459,7 +10453,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10664,11 +10657,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="374837096"/>
-        <c:axId val="374839056"/>
+        <c:axId val="367547704"/>
+        <c:axId val="367548488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="374837096"/>
+        <c:axId val="367547704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10725,12 +10718,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374839056"/>
+        <c:crossAx val="367548488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="374839056"/>
+        <c:axId val="367548488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10787,7 +10780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374837096"/>
+        <c:crossAx val="367547704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -26737,554 +26730,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Blank"/>
-      <sheetName val="0"/>
-      <sheetName val="1"/>
-      <sheetName val="Phenol oxidase activity"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="4">
-          <cell r="N4">
-            <v>0</v>
-          </cell>
-          <cell r="O4">
-            <v>1.4206000566482544</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="N5">
-            <v>3</v>
-          </cell>
-          <cell r="O5">
-            <v>1.4632999897003174</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="N6">
-            <v>6</v>
-          </cell>
-          <cell r="O6">
-            <v>1.4937000274658203</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="N7">
-            <v>9</v>
-          </cell>
-          <cell r="O7">
-            <v>1.5225000381469727</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="N8">
-            <v>12</v>
-          </cell>
-          <cell r="O8">
-            <v>1.5699000358581543</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="N9">
-            <v>15</v>
-          </cell>
-          <cell r="O9">
-            <v>1.6111999750137329</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="N10">
-            <v>18</v>
-          </cell>
-          <cell r="O10">
-            <v>1.649399995803833</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="N11">
-            <v>21</v>
-          </cell>
-          <cell r="O11">
-            <v>1.6750999689102173</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="N12">
-            <v>24</v>
-          </cell>
-          <cell r="O12">
-            <v>1.6993999481201172</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="N13">
-            <v>27</v>
-          </cell>
-          <cell r="O13">
-            <v>1.7266999483108521</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="N14">
-            <v>30</v>
-          </cell>
-          <cell r="O14">
-            <v>1.7548999786376953</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="N19">
-            <v>0</v>
-          </cell>
-          <cell r="O19">
-            <v>1.9702999591827393</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="N20">
-            <v>3</v>
-          </cell>
-          <cell r="O20">
-            <v>1.9997999668121338</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="N21">
-            <v>6</v>
-          </cell>
-          <cell r="O21">
-            <v>2.0352001190185547</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="N22">
-            <v>9</v>
-          </cell>
-          <cell r="O22">
-            <v>2.0601999759674072</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="N23">
-            <v>12</v>
-          </cell>
-          <cell r="O23">
-            <v>2.0964999198913574</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="N24">
-            <v>15</v>
-          </cell>
-          <cell r="O24">
-            <v>2.1254000663757324</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="N25">
-            <v>18</v>
-          </cell>
-          <cell r="O25">
-            <v>2.1507000923156738</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="N26">
-            <v>21</v>
-          </cell>
-          <cell r="O26">
-            <v>2.152400016784668</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="N27">
-            <v>24</v>
-          </cell>
-          <cell r="O27">
-            <v>2.1628000736236572</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="N28">
-            <v>27</v>
-          </cell>
-          <cell r="O28">
-            <v>2.1719000339508057</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="N29">
-            <v>30</v>
-          </cell>
-          <cell r="O29">
-            <v>2.1888999938964844</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="N35">
-            <v>0</v>
-          </cell>
-          <cell r="O35">
-            <v>1.7063000202178955</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="N36">
-            <v>3</v>
-          </cell>
-          <cell r="O36">
-            <v>1.7470999956130981</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="N37">
-            <v>6</v>
-          </cell>
-          <cell r="O37">
-            <v>1.8051999807357788</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="N38">
-            <v>9</v>
-          </cell>
-          <cell r="O38">
-            <v>1.8631999492645264</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="N39">
-            <v>12</v>
-          </cell>
-          <cell r="O39">
-            <v>1.9196000099182129</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="N40">
-            <v>15</v>
-          </cell>
-          <cell r="O40">
-            <v>1.9716999530792236</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="N41">
-            <v>18</v>
-          </cell>
-          <cell r="O41">
-            <v>2.0302000045776367</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="N42">
-            <v>21</v>
-          </cell>
-          <cell r="O42">
-            <v>2.072700023651123</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="N43">
-            <v>24</v>
-          </cell>
-          <cell r="O43">
-            <v>2.1182999610900879</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="N44">
-            <v>27</v>
-          </cell>
-          <cell r="O44">
-            <v>2.1515998840332031</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="N45">
-            <v>30</v>
-          </cell>
-          <cell r="O45">
-            <v>2.1879000663757324</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="N51">
-            <v>0</v>
-          </cell>
-          <cell r="O51">
-            <v>1.684499979019165</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="N52">
-            <v>3</v>
-          </cell>
-          <cell r="O52">
-            <v>1.7110999822616577</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="N53">
-            <v>6</v>
-          </cell>
-          <cell r="O53">
-            <v>1.7451000213623047</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="N54">
-            <v>9</v>
-          </cell>
-          <cell r="O54">
-            <v>1.7877000570297241</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="N55">
-            <v>12</v>
-          </cell>
-          <cell r="O55">
-            <v>1.8224999904632568</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="N56">
-            <v>15</v>
-          </cell>
-          <cell r="O56">
-            <v>1.8592000007629395</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="N57">
-            <v>18</v>
-          </cell>
-          <cell r="O57">
-            <v>1.8940999507904053</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="N58">
-            <v>21</v>
-          </cell>
-          <cell r="O58">
-            <v>1.9042999744415283</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="N59">
-            <v>24</v>
-          </cell>
-          <cell r="O59">
-            <v>1.9212000370025635</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="N60">
-            <v>27</v>
-          </cell>
-          <cell r="O60">
-            <v>1.9298000335693359</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="N61">
-            <v>30</v>
-          </cell>
-          <cell r="O61">
-            <v>1.9448000192642212</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="N68">
-            <v>0</v>
-          </cell>
-          <cell r="O68">
-            <v>1.8969000577926636</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="N69">
-            <v>3</v>
-          </cell>
-          <cell r="O69">
-            <v>1.9462000131607056</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="N70">
-            <v>6</v>
-          </cell>
-          <cell r="O70">
-            <v>1.9866000413894653</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="N71">
-            <v>9</v>
-          </cell>
-          <cell r="O71">
-            <v>2.0344998836517334</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="N72">
-            <v>12</v>
-          </cell>
-          <cell r="O72">
-            <v>2.0998001098632813</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="N73">
-            <v>15</v>
-          </cell>
-          <cell r="O73">
-            <v>2.1463000774383545</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="N74">
-            <v>18</v>
-          </cell>
-          <cell r="O74">
-            <v>2.1805000305175781</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="N75">
-            <v>21</v>
-          </cell>
-          <cell r="O75">
-            <v>2.2018001079559326</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="N76">
-            <v>24</v>
-          </cell>
-          <cell r="O76">
-            <v>2.2223000526428223</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="N77">
-            <v>27</v>
-          </cell>
-          <cell r="O77">
-            <v>2.2181000709533691</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="N78">
-            <v>30</v>
-          </cell>
-          <cell r="O78">
-            <v>2.2227001190185547</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="N85">
-            <v>0</v>
-          </cell>
-          <cell r="O85">
-            <v>1.4320000410079956</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="N86">
-            <v>3</v>
-          </cell>
-          <cell r="O86">
-            <v>1.4503999948501587</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="N87">
-            <v>6</v>
-          </cell>
-          <cell r="O87">
-            <v>1.4936000108718872</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="N88">
-            <v>9</v>
-          </cell>
-          <cell r="O88">
-            <v>1.5404000282287598</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="N89">
-            <v>12</v>
-          </cell>
-          <cell r="O89">
-            <v>1.6124999523162842</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="N90">
-            <v>15</v>
-          </cell>
-          <cell r="O90">
-            <v>1.6718000173568726</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="N91">
-            <v>18</v>
-          </cell>
-          <cell r="O91">
-            <v>1.7129000425338745</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="N92">
-            <v>21</v>
-          </cell>
-          <cell r="O92">
-            <v>1.7444000244140625</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="N93">
-            <v>24</v>
-          </cell>
-          <cell r="O93">
-            <v>1.7496999502182007</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="N94">
-            <v>27</v>
-          </cell>
-          <cell r="O94">
-            <v>1.7117999792098999</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="N95">
-            <v>30</v>
-          </cell>
-          <cell r="O95">
-            <v>1.6742000579833984</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -27904,7 +27349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
@@ -31926,7 +31371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O95"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
       <selection activeCell="O96" sqref="O96"/>
     </sheetView>
   </sheetViews>

--- a/Phenoloxidase Activity data/Sample for data.xlsx
+++ b/Phenoloxidase Activity data/Sample for data.xlsx
@@ -487,11 +487,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="367550264"/>
-        <c:axId val="737287280"/>
+        <c:axId val="384339144"/>
+        <c:axId val="384335224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="367550264"/>
+        <c:axId val="384339144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -548,12 +548,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="737287280"/>
+        <c:crossAx val="384335224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="737287280"/>
+        <c:axId val="384335224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -610,7 +610,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367550264"/>
+        <c:crossAx val="384339144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -878,11 +878,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="369755280"/>
-        <c:axId val="369755672"/>
+        <c:axId val="382033552"/>
+        <c:axId val="382033944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="369755280"/>
+        <c:axId val="382033552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,12 +939,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369755672"/>
+        <c:crossAx val="382033944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="369755672"/>
+        <c:axId val="382033944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1001,7 +1001,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369755280"/>
+        <c:crossAx val="382033552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1269,11 +1269,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="369753320"/>
-        <c:axId val="369752928"/>
+        <c:axId val="382034336"/>
+        <c:axId val="385252248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="369753320"/>
+        <c:axId val="382034336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1330,12 +1330,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369752928"/>
+        <c:crossAx val="385252248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="369752928"/>
+        <c:axId val="385252248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1392,7 +1392,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369753320"/>
+        <c:crossAx val="382034336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1660,11 +1660,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="369754104"/>
-        <c:axId val="369754888"/>
+        <c:axId val="385249504"/>
+        <c:axId val="385250288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="369754104"/>
+        <c:axId val="385249504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1721,12 +1721,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369754888"/>
+        <c:crossAx val="385250288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="369754888"/>
+        <c:axId val="385250288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1783,7 +1783,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369754104"/>
+        <c:crossAx val="385249504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2051,11 +2051,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="731188376"/>
-        <c:axId val="731186808"/>
+        <c:axId val="298944496"/>
+        <c:axId val="298946848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="731188376"/>
+        <c:axId val="298944496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2112,12 +2112,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="731186808"/>
+        <c:crossAx val="298946848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="731186808"/>
+        <c:axId val="298946848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2174,7 +2174,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="731188376"/>
+        <c:crossAx val="298944496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2442,11 +2442,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="731187592"/>
-        <c:axId val="731185240"/>
+        <c:axId val="292908608"/>
+        <c:axId val="292905472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="731187592"/>
+        <c:axId val="292908608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2503,12 +2503,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="731185240"/>
+        <c:crossAx val="292905472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="731185240"/>
+        <c:axId val="292905472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2565,7 +2565,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="731187592"/>
+        <c:crossAx val="292908608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2833,11 +2833,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="731185632"/>
-        <c:axId val="731186416"/>
+        <c:axId val="386414824"/>
+        <c:axId val="386415216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="731185632"/>
+        <c:axId val="386414824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2894,12 +2894,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="731186416"/>
+        <c:crossAx val="386415216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="731186416"/>
+        <c:axId val="386415216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2956,7 +2956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="731185632"/>
+        <c:crossAx val="386414824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3224,11 +3224,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="731187984"/>
-        <c:axId val="372458584"/>
+        <c:axId val="384605592"/>
+        <c:axId val="293549744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="731187984"/>
+        <c:axId val="384605592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3285,12 +3285,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372458584"/>
+        <c:crossAx val="293549744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="372458584"/>
+        <c:axId val="293549744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3347,7 +3347,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="731187984"/>
+        <c:crossAx val="384605592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3615,11 +3615,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="372459760"/>
-        <c:axId val="372457408"/>
+        <c:axId val="291587864"/>
+        <c:axId val="291596488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="372459760"/>
+        <c:axId val="291587864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3676,12 +3676,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372457408"/>
+        <c:crossAx val="291596488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="372457408"/>
+        <c:axId val="291596488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3738,7 +3738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372459760"/>
+        <c:crossAx val="291587864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4006,11 +4006,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="372460152"/>
-        <c:axId val="372456624"/>
+        <c:axId val="291593352"/>
+        <c:axId val="291592176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="372460152"/>
+        <c:axId val="291593352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4067,12 +4067,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372456624"/>
+        <c:crossAx val="291592176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="372456624"/>
+        <c:axId val="291592176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4129,7 +4129,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372460152"/>
+        <c:crossAx val="291593352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4397,11 +4397,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="372458976"/>
-        <c:axId val="372459368"/>
+        <c:axId val="291587080"/>
+        <c:axId val="291590608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="372458976"/>
+        <c:axId val="291587080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4458,12 +4458,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372459368"/>
+        <c:crossAx val="291590608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="372459368"/>
+        <c:axId val="291590608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4520,7 +4520,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372458976"/>
+        <c:crossAx val="291587080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4788,11 +4788,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="737284144"/>
-        <c:axId val="737286888"/>
+        <c:axId val="384337184"/>
+        <c:axId val="384337576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="737284144"/>
+        <c:axId val="384337184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4849,12 +4849,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="737286888"/>
+        <c:crossAx val="384337576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="737286888"/>
+        <c:axId val="384337576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4911,7 +4911,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="737284144"/>
+        <c:crossAx val="384337184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5179,11 +5179,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="375598240"/>
-        <c:axId val="375597456"/>
+        <c:axId val="291596880"/>
+        <c:axId val="291597272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="375598240"/>
+        <c:axId val="291596880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5240,12 +5240,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375597456"/>
+        <c:crossAx val="291597272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="375597456"/>
+        <c:axId val="291597272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5302,7 +5302,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375598240"/>
+        <c:crossAx val="291596880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5570,11 +5570,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="375595496"/>
-        <c:axId val="375596672"/>
+        <c:axId val="291594920"/>
+        <c:axId val="291585904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="375595496"/>
+        <c:axId val="291594920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5631,12 +5631,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375596672"/>
+        <c:crossAx val="291585904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="375596672"/>
+        <c:axId val="291585904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5693,7 +5693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375595496"/>
+        <c:crossAx val="291594920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5961,11 +5961,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="375595888"/>
-        <c:axId val="375597848"/>
+        <c:axId val="291595312"/>
+        <c:axId val="291595704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="375595888"/>
+        <c:axId val="291595312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6022,12 +6022,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375597848"/>
+        <c:crossAx val="291595704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="375597848"/>
+        <c:axId val="291595704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6084,7 +6084,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375595888"/>
+        <c:crossAx val="291595312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6352,11 +6352,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="373973360"/>
-        <c:axId val="373973752"/>
+        <c:axId val="291586688"/>
+        <c:axId val="291587472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="373973360"/>
+        <c:axId val="291586688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6413,12 +6413,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373973752"/>
+        <c:crossAx val="291587472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="373973752"/>
+        <c:axId val="291587472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6475,7 +6475,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373973360"/>
+        <c:crossAx val="291586688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6743,11 +6743,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="373975320"/>
-        <c:axId val="373975712"/>
+        <c:axId val="291589824"/>
+        <c:axId val="291591000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="373975320"/>
+        <c:axId val="291589824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6804,12 +6804,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373975712"/>
+        <c:crossAx val="291591000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="373975712"/>
+        <c:axId val="291591000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6866,7 +6866,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373975320"/>
+        <c:crossAx val="291589824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7134,11 +7134,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="373976104"/>
-        <c:axId val="373974928"/>
+        <c:axId val="291591784"/>
+        <c:axId val="291589040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="373976104"/>
+        <c:axId val="291591784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7195,12 +7195,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373974928"/>
+        <c:crossAx val="291589040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="373974928"/>
+        <c:axId val="291589040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7257,7 +7257,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373976104"/>
+        <c:crossAx val="291591784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7526,11 +7526,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="373972968"/>
-        <c:axId val="376841104"/>
+        <c:axId val="291592960"/>
+        <c:axId val="291594136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="373972968"/>
+        <c:axId val="291592960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7587,12 +7587,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376841104"/>
+        <c:crossAx val="291594136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="376841104"/>
+        <c:axId val="291594136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7649,7 +7649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373972968"/>
+        <c:crossAx val="291592960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7918,11 +7918,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="376837968"/>
-        <c:axId val="376840320"/>
+        <c:axId val="291596096"/>
+        <c:axId val="291597664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="376837968"/>
+        <c:axId val="291596096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7979,12 +7979,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376840320"/>
+        <c:crossAx val="291597664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="376840320"/>
+        <c:axId val="291597664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8041,7 +8041,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376837968"/>
+        <c:crossAx val="291596096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8309,11 +8309,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="737286104"/>
-        <c:axId val="737284536"/>
+        <c:axId val="384345024"/>
+        <c:axId val="384337968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="737286104"/>
+        <c:axId val="384345024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8370,12 +8370,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="737284536"/>
+        <c:crossAx val="384337968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="737284536"/>
+        <c:axId val="384337968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8432,7 +8432,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="737286104"/>
+        <c:crossAx val="384345024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8496,7 +8496,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8701,11 +8700,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="737285320"/>
-        <c:axId val="737285712"/>
+        <c:axId val="384338360"/>
+        <c:axId val="384341496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="737285320"/>
+        <c:axId val="384338360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8762,12 +8761,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="737285712"/>
+        <c:crossAx val="384341496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="737285712"/>
+        <c:axId val="384341496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8824,7 +8823,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="737285320"/>
+        <c:crossAx val="384338360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8888,7 +8887,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9093,11 +9091,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="728871008"/>
-        <c:axId val="728871792"/>
+        <c:axId val="384345416"/>
+        <c:axId val="384334440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="728871008"/>
+        <c:axId val="384345416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9154,12 +9152,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="728871792"/>
+        <c:crossAx val="384334440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="728871792"/>
+        <c:axId val="384334440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9216,7 +9214,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="728871008"/>
+        <c:crossAx val="384345416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9484,11 +9482,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="728872576"/>
-        <c:axId val="726784792"/>
+        <c:axId val="384339928"/>
+        <c:axId val="384342672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="728872576"/>
+        <c:axId val="384339928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9545,12 +9543,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="726784792"/>
+        <c:crossAx val="384342672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="726784792"/>
+        <c:axId val="384342672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9607,7 +9605,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="728872576"/>
+        <c:crossAx val="384339928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9875,11 +9873,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="726783616"/>
-        <c:axId val="726784400"/>
+        <c:axId val="384349336"/>
+        <c:axId val="384348944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="726783616"/>
+        <c:axId val="384349336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9936,12 +9934,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="726784400"/>
+        <c:crossAx val="384348944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="726784400"/>
+        <c:axId val="384348944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9998,7 +9996,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="726783616"/>
+        <c:crossAx val="384349336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10266,11 +10264,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="367548096"/>
-        <c:axId val="367547312"/>
+        <c:axId val="384347376"/>
+        <c:axId val="384347768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="367548096"/>
+        <c:axId val="384347376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10327,12 +10325,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367547312"/>
+        <c:crossAx val="384347768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="367547312"/>
+        <c:axId val="384347768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10389,7 +10387,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367548096"/>
+        <c:crossAx val="384347376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10657,11 +10655,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="367547704"/>
-        <c:axId val="367548488"/>
+        <c:axId val="384350120"/>
+        <c:axId val="384348160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="367547704"/>
+        <c:axId val="384350120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10718,12 +10716,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367548488"/>
+        <c:crossAx val="384348160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="367548488"/>
+        <c:axId val="384348160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10780,7 +10778,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367547704"/>
+        <c:crossAx val="384350120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
